--- a/database/database.xlsx
+++ b/database/database.xlsx
@@ -2255,7 +2255,7 @@
   <dimension ref="A1:M134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="9" x14ac:dyDescent="0.15"/>
